--- a/data/trans_dic/P55$familiar-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2365223051555039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5152932740369924</v>
+        <v>0.5152932740369923</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.266771905717899</v>
@@ -697,7 +697,7 @@
         <v>0.2776591706303771</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5214851135408192</v>
+        <v>0.5214851135408191</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1186003823847698</v>
+        <v>0.1368392871241576</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1841968933062924</v>
+        <v>0.181011670690894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1238596738207768</v>
+        <v>0.1289914061427671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3508187024103065</v>
+        <v>0.3604609946090994</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1882555735262665</v>
+        <v>0.1853884029704783</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2304821671628011</v>
+        <v>0.2205640481559689</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2046101114890982</v>
+        <v>0.2012950130309088</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4493861955556846</v>
+        <v>0.4427885054680991</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1926133008668789</v>
+        <v>0.187089904501667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2472769735148745</v>
+        <v>0.2453200418744005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2022274736095209</v>
+        <v>0.2009519541167886</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.446225161367848</v>
+        <v>0.4501923979325372</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.403031388821988</v>
+        <v>0.4176076111096379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4525194819928532</v>
+        <v>0.4562673968654246</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3709898572996053</v>
+        <v>0.3713448496567878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6734557614871211</v>
+        <v>0.6662793764926933</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3562947736857834</v>
+        <v>0.3670721048480916</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4324823769181056</v>
+        <v>0.4195741427882087</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4105865915422259</v>
+        <v>0.3946366806526893</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6023589923509998</v>
+        <v>0.6028025218202097</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3351824296509888</v>
+        <v>0.3307455683083466</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4022853103586966</v>
+        <v>0.4112799026553474</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.361920267912864</v>
+        <v>0.3678740459418277</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.589067236574349</v>
+        <v>0.5873188130945978</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.290004996069309</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6158656119684099</v>
+        <v>0.6158656119684098</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07347468635649858</v>
+        <v>0.07576602878586941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09939785889486334</v>
+        <v>0.1007896206461185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2270308876015521</v>
+        <v>0.2302863670345927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4134347557854697</v>
+        <v>0.4203554019736221</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2295264267198267</v>
+        <v>0.236307724302527</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.236352476838247</v>
+        <v>0.2400290770195946</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1410175134678354</v>
+        <v>0.1423463610834014</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5860615873976278</v>
+        <v>0.5926607924599102</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1880585435616251</v>
+        <v>0.1891328487120466</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.219149779633742</v>
+        <v>0.2140473651340502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2040897678155403</v>
+        <v>0.2071253683912294</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5589020721016373</v>
+        <v>0.5638881571309688</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2963384965664471</v>
+        <v>0.2960054147730586</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3581231381809005</v>
+        <v>0.3586175569451803</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5302918816703328</v>
+        <v>0.5388266867347163</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6356130262582499</v>
+        <v>0.6447323919705836</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4797703884291345</v>
+        <v>0.4802084874020792</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4226581715178876</v>
+        <v>0.4380409529155071</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3744813509681976</v>
+        <v>0.3737067734060823</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7123074469753731</v>
+        <v>0.7211507125399559</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3508509470312772</v>
+        <v>0.3489901230391745</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3679155991086046</v>
+        <v>0.3765995428513143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3794305266421367</v>
+        <v>0.3769418923105006</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6651925371799626</v>
+        <v>0.6718462125265908</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2856911579676252</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5720806375580484</v>
+        <v>0.5720806375580485</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1605548966161968</v>
@@ -969,7 +969,7 @@
         <v>0.3110353612140299</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6174928743092882</v>
+        <v>0.6174928743092883</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07986495127312036</v>
+        <v>0.08033667212338204</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05142431686201529</v>
+        <v>0.05267833824762439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.158577342534449</v>
+        <v>0.1484646691933234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4361766159254501</v>
+        <v>0.4405190851516601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07451627860191733</v>
+        <v>0.05565889033443638</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.184823109475182</v>
+        <v>0.1892541499412846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1968398910853989</v>
+        <v>0.2020359364558765</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5545613702512558</v>
+        <v>0.5556193799904141</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1047995089533558</v>
+        <v>0.09603395305916049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1564616799240944</v>
+        <v>0.1599942304356302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2198793694339448</v>
+        <v>0.2095905024001397</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5477725363585283</v>
+        <v>0.5487909097874327</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.445015827821943</v>
+        <v>0.456937225969595</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2875483017019837</v>
+        <v>0.3018016439009619</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.485718570553</v>
+        <v>0.4747643902994353</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7000618322360238</v>
+        <v>0.6920982618046838</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3107324222494021</v>
+        <v>0.2991722848641366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4407889760581243</v>
+        <v>0.4437806491847923</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4571378761385089</v>
+        <v>0.4731723227435312</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7154446419722444</v>
+        <v>0.7120589624023544</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3014395032532582</v>
+        <v>0.3037681672406043</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3370375402984191</v>
+        <v>0.3379741047185831</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4312054014020004</v>
+        <v>0.4170620115005627</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6808906332550023</v>
+        <v>0.6785410727006854</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3093316435475766</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3924925758592413</v>
+        <v>0.3924925758592412</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09016207817426282</v>
@@ -1105,7 +1105,7 @@
         <v>0.2476469288147344</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3826730374729171</v>
+        <v>0.3826730374729172</v>
       </c>
     </row>
     <row r="14">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06891918297260108</v>
+        <v>0.06532333084858638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.140501970021266</v>
+        <v>0.1105275156016887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2630421902491908</v>
+        <v>0.2751998153270437</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1763653375235447</v>
+        <v>0.1757057217882189</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05117122495925307</v>
+        <v>0.05117690359620859</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2862304292166968</v>
+        <v>0.2831913405837182</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03685090492491181</v>
+        <v>0.03774500789902876</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1823837803210743</v>
+        <v>0.167778851776481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1375055704390057</v>
+        <v>0.1319226120066524</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3099303564072317</v>
+        <v>0.3100998510914043</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4768858685063884</v>
+        <v>0.4875991678544405</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5589380030905395</v>
+        <v>0.5559668269590953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5509557584180271</v>
+        <v>0.5323191141722624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5102951930723755</v>
+        <v>0.5141183336297452</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4219866833126589</v>
+        <v>0.3746401822994039</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5421782878697967</v>
+        <v>0.5570899273268307</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4454924051447295</v>
+        <v>0.4094619291257077</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.474350905427194</v>
+        <v>0.4735604538681734</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3022205197643978</v>
+        <v>0.3392493251708135</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4853297410561254</v>
+        <v>0.4649498319449095</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3958255495779752</v>
+        <v>0.4103701823452078</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4658647523743205</v>
+        <v>0.4619411383067188</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2975222597713481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4971486275786298</v>
+        <v>0.4971486275786299</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2590836375378245</v>
@@ -1229,7 +1229,7 @@
         <v>0.280819326100352</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5723898356879292</v>
+        <v>0.5723898356879293</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.237883132132425</v>
@@ -1241,7 +1241,7 @@
         <v>0.2859766543725697</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5480095143642927</v>
+        <v>0.5480095143642928</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1358940071830091</v>
+        <v>0.1377119012761205</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1661589865881717</v>
+        <v>0.1622356653814096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2203418040305121</v>
+        <v>0.226559177190583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4289617222012965</v>
+        <v>0.4414852485848849</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1959479229623783</v>
+        <v>0.1977916222232216</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2624709769858797</v>
+        <v>0.2684662490140295</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2189190479960801</v>
+        <v>0.2212162384845029</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5335246666188312</v>
+        <v>0.5302172415615819</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1914079942802834</v>
+        <v>0.1927370249472471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2504898149428804</v>
+        <v>0.2476050581675082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2383764420617741</v>
+        <v>0.2433372287890323</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5140957462110065</v>
+        <v>0.5100035541393528</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2753974997068969</v>
+        <v>0.2773372917223045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3158382446668381</v>
+        <v>0.310311284228423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3766149718695742</v>
+        <v>0.3860384687151862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5554634294576566</v>
+        <v>0.5611015905497948</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3219474978943103</v>
+        <v>0.3235105858476979</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3772876736917324</v>
+        <v>0.3853142960995221</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3482151391325518</v>
+        <v>0.3465062255219649</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6138762390604791</v>
+        <v>0.6121418190725196</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2884209831315541</v>
+        <v>0.2866064770204159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3397668231349877</v>
+        <v>0.3420698820532149</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3398351814832771</v>
+        <v>0.3419470781814322</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5833726734055773</v>
+        <v>0.5797519560311568</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4636</v>
+        <v>5349</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8825</v>
+        <v>8672</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4891</v>
+        <v>5094</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9490</v>
+        <v>9751</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20963</v>
+        <v>20644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22661</v>
+        <v>21686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21832</v>
+        <v>21478</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38583</v>
+        <v>38016</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28978</v>
+        <v>28147</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36159</v>
+        <v>35873</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29564</v>
+        <v>29377</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>50381</v>
+        <v>50829</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15755</v>
+        <v>16325</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21680</v>
+        <v>21859</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14650</v>
+        <v>14664</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18218</v>
+        <v>18024</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39675</v>
+        <v>40875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42521</v>
+        <v>41252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43810</v>
+        <v>42108</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>51716</v>
+        <v>51754</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50427</v>
+        <v>49760</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58825</v>
+        <v>60141</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>52909</v>
+        <v>53780</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>66509</v>
+        <v>66312</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3690</v>
+        <v>3805</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4089</v>
+        <v>4146</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7575</v>
+        <v>7683</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22750</v>
+        <v>23130</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13604</v>
+        <v>14006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22228</v>
+        <v>22574</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10219</v>
+        <v>10315</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>72309</v>
+        <v>73123</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20590</v>
+        <v>20708</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>29625</v>
+        <v>28935</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>21598</v>
+        <v>21919</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>99711</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14882</v>
+        <v>14865</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14731</v>
+        <v>14752</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17693</v>
+        <v>17977</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34975</v>
+        <v>35477</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28436</v>
+        <v>28462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39749</v>
+        <v>41196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27136</v>
+        <v>27080</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87885</v>
+        <v>88976</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>38414</v>
+        <v>38211</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>49735</v>
+        <v>50909</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>40154</v>
+        <v>39891</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>118674</v>
+        <v>119861</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1856</v>
+        <v>1867</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2060</v>
+        <v>2111</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4636</v>
+        <v>4341</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15953</v>
+        <v>16112</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3110</v>
+        <v>2323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10701</v>
+        <v>10958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12544</v>
+        <v>12875</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47364</v>
+        <v>47454</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6809</v>
+        <v>6239</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15328</v>
+        <v>15674</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20440</v>
+        <v>19484</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>66819</v>
+        <v>66944</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10341</v>
+        <v>10618</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11521</v>
+        <v>12092</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14201</v>
+        <v>13881</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25605</v>
+        <v>25313</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12967</v>
+        <v>12485</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25522</v>
+        <v>25695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29131</v>
+        <v>30153</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>61105</v>
+        <v>60816</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19585</v>
+        <v>19736</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>33019</v>
+        <v>33111</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>40086</v>
+        <v>38771</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>83058</v>
+        <v>82771</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1100</v>
+        <v>1042</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2365</v>
+        <v>1861</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13082</v>
+        <v>13687</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4966</v>
+        <v>4947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16211</v>
+        <v>16039</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8046</v>
+        <v>7401</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5524</v>
+        <v>5300</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32968</v>
+        <v>32986</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4734</v>
+        <v>4840</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8920</v>
+        <v>8872</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9274</v>
+        <v>8961</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25380</v>
+        <v>25570</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5067</v>
+        <v>4499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15266</v>
+        <v>15685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10399</v>
+        <v>9558</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26865</v>
+        <v>26821</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6629</v>
+        <v>7441</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>21410</v>
+        <v>20511</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15902</v>
+        <v>16487</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>49554</v>
+        <v>49137</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16643</v>
+        <v>16866</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24105</v>
+        <v>23535</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26204</v>
+        <v>26943</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>72232</v>
+        <v>74340</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>43964</v>
+        <v>44378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>73078</v>
+        <v>74747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>58283</v>
+        <v>58895</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>187417</v>
+        <v>186255</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>66388</v>
+        <v>66849</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>106080</v>
+        <v>104859</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>91812</v>
+        <v>93723</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>267159</v>
+        <v>265032</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33729</v>
+        <v>33967</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45818</v>
+        <v>45017</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44789</v>
+        <v>45909</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>93533</v>
+        <v>94482</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72234</v>
+        <v>72585</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>105045</v>
+        <v>107280</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>92706</v>
+        <v>92251</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>215642</v>
+        <v>215033</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>100036</v>
+        <v>99407</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>143888</v>
+        <v>144864</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>130889</v>
+        <v>131703</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>303160</v>
+        <v>301278</v>
       </c>
     </row>
     <row r="24">
